--- a/data/data_metadata_MEGA.xlsx
+++ b/data/data_metadata_MEGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/Competitions/Pro_vs_Syn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FABE71C-48A1-C746-A852-DCD0D155968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B60F1C-6400-ED4D-9711-FE24651C0ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="23220" windowHeight="14640" activeTab="1" xr2:uid="{7ACDE501-5141-0745-AE32-33FE23607C69}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="23220" windowHeight="14640" activeTab="2" xr2:uid="{7ACDE501-5141-0745-AE32-33FE23607C69}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="201">
   <si>
     <t>source</t>
   </si>
@@ -664,6 +664,18 @@
   </si>
   <si>
     <t>growth_assays</t>
+  </si>
+  <si>
+    <t>rep 1  = repA1, rep2 = repA2, rep3 = repB1, rep4 = repB2 for bio. HOOH was rep 1 and 3 as 1 rep from each bio (is already an avg from curve calculations) . HOOH coculture Trial 4 was identical to Trial 3, except that HOOH was added as an instantaneous addition on day zero rather than being added periodically over the day.</t>
+  </si>
+  <si>
+    <t>Emily Landlot</t>
+  </si>
+  <si>
+    <t>EZ55 and EZ54 HOOH and cells for 6 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H, hets (EZ54, EZ55) </t>
   </si>
 </sst>
 </file>
@@ -807,13 +819,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7462DECA-8239-D446-8301-2C0AEF6258BF}">
   <dimension ref="A2:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1149,23 +1161,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -1551,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A0A6D9-51A5-6841-A19F-BFEF4112BF6C}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1787,10 +1799,10 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
       <c r="C11" t="s">
         <v>90</v>
       </c>
@@ -1811,10 +1823,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
       <c r="C12" t="s">
         <v>90</v>
       </c>
@@ -1832,10 +1844,10 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
         <v>104</v>
       </c>
@@ -1925,7 +1937,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>191</v>
       </c>
       <c r="C17" t="s">
@@ -1951,7 +1963,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="51">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>191</v>
       </c>
       <c r="C18" t="s">
@@ -1977,7 +1989,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="102">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>191</v>
       </c>
       <c r="C19" t="s">
@@ -1997,7 +2009,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>191</v>
       </c>
       <c r="C20" t="s">
@@ -2195,7 +2207,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>191</v>
       </c>
       <c r="C29" t="s">
@@ -2278,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE658B00-EFB8-214B-A648-2D38277DBCCD}">
-  <dimension ref="A2:I49"/>
+  <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2447,7 +2459,7 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2576,42 +2588,39 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16">
-        <v>2014</v>
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B17">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2622,16 +2631,13 @@
         <v>2016</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2642,13 +2648,13 @@
         <v>2016</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
         <v>87</v>
@@ -2662,39 +2668,36 @@
         <v>2016</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="170">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>96</v>
       </c>
       <c r="B21">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="170">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2702,22 +2705,22 @@
         <v>2011</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="102">
+    <row r="23" spans="1:7" ht="51">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2725,16 +2728,22 @@
         <v>2011</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="51">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="102">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -2742,16 +2751,16 @@
         <v>2011</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="51">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2759,39 +2768,36 @@
         <v>2011</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="85">
+        <v>143</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>96</v>
       </c>
       <c r="B26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="85">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2799,16 +2805,16 @@
         <v>2013</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2819,16 +2825,16 @@
         <v>2013</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" t="s">
-        <v>87</v>
+        <v>161</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2839,13 +2845,13 @@
         <v>2013</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
         <v>87</v>
@@ -2859,13 +2865,13 @@
         <v>2013</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G30" t="s">
         <v>87</v>
@@ -2879,13 +2885,13 @@
         <v>2013</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
         <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
         <v>87</v>
@@ -2893,111 +2899,127 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B32">
         <v>2013</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
         <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>151</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="B33">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35">
+        <v>2020</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>126</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>2018</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>127</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="409.6">
-      <c r="A36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36">
-        <v>2023</v>
-      </c>
-      <c r="C36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="409.6">
       <c r="A37" t="s">
         <v>155</v>
       </c>
       <c r="B37">
         <v>2023</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="s">
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:7">
       <c r="E39" s="12"/>
@@ -3019,11 +3041,15 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
+    <row r="44" spans="1:7">
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>147</v>
       </c>
     </row>
